--- a/datasets/data.xlsx
+++ b/datasets/data.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natiq\Desktop\Statistics with python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natiq\Desktop\Data Science\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6F9D64-1EC2-43E2-A1B6-2993AB1DE562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A24F9B9-31B3-49F6-B1C2-50A26BBE621F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal_data" sheetId="1" r:id="rId1"/>
     <sheet name="sign_rank" sheetId="2" r:id="rId2"/>
     <sheet name="two_sample_nd" sheetId="3" r:id="rId3"/>
-    <sheet name="finance_marketing" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>data</t>
   </si>
@@ -37,18 +36,6 @@
   </si>
   <si>
     <t>Group_2</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>marketing</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF575E8-5BDF-47A5-9392-65BF73F986F6}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -1280,827 +1267,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A042FAA7-FA90-4F8A-A83A-6CA28958FA9B}">
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>43.25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>45.578000000000003</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>44.585999999999999</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>41.112000000000002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>41.954000000000001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>45.497</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>43.462000000000003</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>40.972999999999999</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>42.918999999999997</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>41.167000000000002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>43.146999999999998</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>41.37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>40.081000000000003</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>44.213000000000001</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>40.853000000000002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>39.314999999999998</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>42.982999999999997</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>41.75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>41.658000000000001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>42.377000000000002</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>46.575000000000003</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>41.521999999999998</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>43.444000000000003</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>41.274999999999999</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>38.802999999999997</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>40.726999999999997</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>44.530999999999999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>45.372999999999998</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>43.755000000000003</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>43.393000000000001</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>38.124000000000002</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>42.652999999999999</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>42.795000000000002</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>42.319000000000003</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>43.654000000000003</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>39.213999999999999</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>42.579000000000001</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>42.249000000000002</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>43.024000000000001</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>43.94</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>43.387</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41.478999999999999</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42.734999999999999</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>41.271000000000001</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>43.72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>42.51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>42.701000000000001</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>43.505000000000003</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>40.927999999999997</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>40.639000000000003</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>38.401000000000003</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>37.917000000000002</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>38.872999999999998</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>40.04</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>38.625</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>33.009</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>40.225000000000001</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>38.976999999999997</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>41.4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>38.215000000000003</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>37.893999999999998</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>32.954999999999998</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>32.985999999999997</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>36.353999999999999</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>33.963000000000001</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>37.655000000000001</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>39.058</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>40.409999999999997</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>33.268000000000001</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>37.753999999999998</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>39.100999999999999</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>38.162999999999997</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>37.603999999999999</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>36.661000000000001</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>34.656999999999996</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>31.8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>35.786999999999999</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>33.798000000000002</v>
-      </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>38.762999999999998</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>35.466999999999999</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>32.637999999999998</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>35.109000000000002</v>
-      </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>38.896999999999998</v>
-      </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>38.701999999999998</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>37.218000000000004</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>37.603000000000002</v>
-      </c>
-      <c r="B89" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>41.191000000000003</v>
-      </c>
-      <c r="B91" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>34.877000000000002</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>33.825000000000003</v>
-      </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>37.222999999999999</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>40.984999999999999</v>
-      </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>36.93</v>
-      </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>38.801000000000002</v>
-      </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>32.631999999999998</v>
-      </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>38.104999999999997</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>34.81</v>
-      </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>